--- a/artfynd/A 52113-2025 artfynd.xlsx
+++ b/artfynd/A 52113-2025 artfynd.xlsx
@@ -800,7 +800,7 @@
         <v>130942589</v>
       </c>
       <c r="B3" t="n">
-        <v>56170</v>
+        <v>56174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
